--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,36 +8,91 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/aleksandra_petrenko_relexsolutions_com/Documents/Desktop/WiSe23-24/Masterarbeit Specimen Delivery/Computational experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_F25DC773A252ABDACC1048B7115F539E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{981A3BD8-627C-4084-B5FE-C3464E6A879F}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="11_F25DC773A252ABDACC1048B7115F539E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28AC8A5-384D-4513-B5CA-DF8360F7FFAF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passau" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Det</t>
+  </si>
+  <si>
+    <t>Prob</t>
+  </si>
+  <si>
+    <t>ProbRel</t>
+  </si>
+  <si>
+    <t>DetRel</t>
+  </si>
+  <si>
+    <t>Price of uncertainty</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,14 +115,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -345,92 +434,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="8.7265625" style="14"/>
+    <col min="6" max="6" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="4"/>
+    <col min="12" max="12" width="8.7265625" style="14"/>
+    <col min="13" max="13" width="12.7265625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>1020</v>
-      </c>
-      <c r="B2">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>5100</v>
       </c>
       <c r="B3">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="3"/>
+      <c r="I3" s="3">
+        <f>F3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <f>J3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>10200</v>
+        <v>5100</v>
       </c>
       <c r="B4">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I11" si="0">F4-C4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M11" si="1">J4-N4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>10200</v>
+      </c>
+      <c r="B5">
+        <v>0.97</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1020</v>
-      </c>
-      <c r="B5">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5100</v>
       </c>
       <c r="B6">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>10200</v>
+        <v>5100</v>
       </c>
       <c r="B7">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>10200</v>
+      </c>
+      <c r="B8">
+        <v>0.98</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1020</v>
-      </c>
-      <c r="B8">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>5100</v>
       </c>
       <c r="B9">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>10200</v>
+        <v>5100</v>
       </c>
       <c r="B10">
         <v>0.999</v>
       </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10200</v>
+      </c>
+      <c r="B11">
+        <v>0.999</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="N1:O1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/aleksandra_petrenko_relexsolutions_com/Documents/Desktop/WiSe23-24/Masterarbeit Specimen Delivery/Computational experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="11_F25DC773A252ABDACC1048B7115F539E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B28AC8A5-384D-4513-B5CA-DF8360F7FFAF}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="11_F25DC773A252ABDACC1048B7115F539E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10967F9B-FD7B-47E7-A8E3-58B5623DE83F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passau" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Passau!$A$2:$X$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>S</t>
   </si>
@@ -67,13 +70,22 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>Number of drones</t>
+  </si>
+  <si>
+    <t>Number of locations</t>
+  </si>
+  <si>
+    <t>Time of first reaching the objective</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -98,15 +110,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -114,45 +138,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,254 +544,753 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="4"/>
-    <col min="5" max="5" width="8.7265625" style="14"/>
-    <col min="6" max="6" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="4"/>
-    <col min="12" max="12" width="8.7265625" style="14"/>
-    <col min="13" max="13" width="12.7265625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="2"/>
+    <col min="5" max="7" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="14.7265625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7265625" style="2"/>
+    <col min="16" max="16" width="8.7265625" style="5"/>
+    <col min="17" max="19" width="12.7265625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
     </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="U2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="W2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C3" s="12">
+        <v>8002601.8269189997</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14">
+        <v>447</v>
+      </c>
+      <c r="G3" s="14">
+        <v>10</v>
+      </c>
+      <c r="H3" s="15">
+        <v>13901858.812890001</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>28</v>
+      </c>
+      <c r="K3" s="12">
+        <f>H3-C3</f>
+        <v>5899256.985971001</v>
+      </c>
+      <c r="L3" s="17">
+        <v>807</v>
+      </c>
+      <c r="M3" s="17">
+        <v>9</v>
+      </c>
+      <c r="N3" s="15">
+        <v>13901858.812890001</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="15">
+        <f>N3-T3</f>
+        <v>5899256.985971001</v>
+      </c>
+      <c r="R3" s="18">
+        <v>807</v>
+      </c>
+      <c r="S3" s="18">
+        <v>9</v>
+      </c>
+      <c r="T3" s="15">
+        <v>8002601.8269189997</v>
+      </c>
+      <c r="U3" s="13">
+        <v>0</v>
+      </c>
+      <c r="V3" s="6">
+        <v>2</v>
+      </c>
+      <c r="W3" s="18">
+        <v>447</v>
+      </c>
+      <c r="X3" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="24">
+        <v>1020</v>
+      </c>
+      <c r="B4" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="C4" s="15">
+        <v>8002601.8269189997</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>447</v>
+      </c>
+      <c r="G4" s="14">
+        <v>10</v>
+      </c>
+      <c r="H4" s="15">
+        <v>14410660.43416</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>53</v>
+      </c>
+      <c r="K4" s="12">
+        <f>H4-C4</f>
+        <v>6408058.607241</v>
+      </c>
+      <c r="L4" s="17">
+        <v>839</v>
+      </c>
+      <c r="M4" s="17">
+        <v>9</v>
+      </c>
+      <c r="N4" s="15">
+        <v>14410660.43416</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="15">
+        <f>N4-T4</f>
+        <v>6408058.607241</v>
+      </c>
+      <c r="R4" s="18">
+        <v>839</v>
+      </c>
+      <c r="S4" s="18">
+        <v>9</v>
+      </c>
+      <c r="T4" s="15">
+        <v>8002601.8269189997</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
+      </c>
+      <c r="V4" s="6">
+        <v>2</v>
+      </c>
+      <c r="W4" s="18">
+        <v>447</v>
+      </c>
+      <c r="X4" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" s="24">
+        <v>1020</v>
+      </c>
+      <c r="B5" s="24">
+        <v>0.999</v>
+      </c>
+      <c r="C5" s="15">
+        <v>8002601.8269189997</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14">
+        <v>447</v>
+      </c>
+      <c r="G5" s="14">
+        <v>10</v>
+      </c>
+      <c r="H5" s="15">
+        <v>18697391.41054</v>
+      </c>
+      <c r="I5" s="13">
+        <v>2.4819999999999998E-3</v>
+      </c>
+      <c r="J5" s="14">
+        <v>200</v>
+      </c>
+      <c r="K5" s="12">
+        <f>H5-C5</f>
+        <v>10694789.583620999</v>
+      </c>
+      <c r="L5" s="17">
+        <v>1091</v>
+      </c>
+      <c r="M5" s="17">
+        <v>11</v>
+      </c>
+      <c r="N5" s="15">
+        <v>18697391.41054</v>
+      </c>
+      <c r="O5" s="13">
+        <v>3.1770000000000001E-3</v>
+      </c>
+      <c r="P5" s="14">
+        <v>175</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>N5-T5</f>
+        <v>10694789.583620999</v>
+      </c>
+      <c r="R5" s="18">
+        <v>1091</v>
+      </c>
+      <c r="S5" s="18">
+        <v>11</v>
+      </c>
+      <c r="T5" s="15">
+        <v>8002601.8269189997</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0</v>
+      </c>
+      <c r="V5" s="6">
+        <v>2</v>
+      </c>
+      <c r="W5" s="18">
+        <v>447</v>
+      </c>
+      <c r="X5" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="24">
+        <v>5100</v>
+      </c>
+      <c r="B6" s="24">
+        <v>0.97</v>
+      </c>
+      <c r="C6" s="15">
+        <v>7513321.5333620002</v>
+      </c>
+      <c r="D6" s="13">
+        <v>6.6750000000000004E-3</v>
+      </c>
+      <c r="E6" s="14">
+        <v>6</v>
+      </c>
+      <c r="F6" s="14">
+        <v>447</v>
+      </c>
+      <c r="G6" s="14">
+        <v>2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>13517257.441090001</v>
+      </c>
+      <c r="I6" s="13">
+        <v>3.2169999999999998E-3</v>
+      </c>
+      <c r="J6" s="14">
+        <v>40</v>
+      </c>
+      <c r="K6" s="12">
+        <f>H6-C6</f>
+        <v>6003935.9077280005</v>
+      </c>
+      <c r="L6" s="17">
+        <v>807</v>
+      </c>
+      <c r="M6" s="17">
+        <v>4</v>
+      </c>
+      <c r="N6" s="15">
+        <v>13517257.4452</v>
+      </c>
+      <c r="O6" s="13">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="P6" s="14">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="15">
+        <f>N6-T6</f>
+        <v>5927015.9586840002</v>
+      </c>
+      <c r="R6" s="18">
+        <v>807</v>
+      </c>
+      <c r="S6" s="18">
+        <v>4</v>
+      </c>
+      <c r="T6" s="15">
+        <v>7590241.4865159998</v>
+      </c>
+      <c r="U6" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="V6" s="6">
+        <v>9</v>
+      </c>
+      <c r="W6" s="18">
+        <v>447</v>
+      </c>
+      <c r="X6" s="18">
         <v>3</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="13" t="s">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>5100</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C7" s="15">
+        <v>7513321.5333620002</v>
+      </c>
+      <c r="D7" s="13">
+        <v>6.6750000000000004E-3</v>
+      </c>
+      <c r="E7" s="14">
+        <v>6</v>
+      </c>
+      <c r="F7" s="14">
+        <v>447</v>
+      </c>
+      <c r="G7" s="14">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12">
+        <f>H7-C7</f>
+        <v>-7513321.5333620002</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15">
+        <f>N7-T7</f>
+        <v>-7590241.4865159998</v>
+      </c>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="15">
+        <v>7590241.4865159998</v>
+      </c>
+      <c r="U7" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="V7" s="6">
         <v>9</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="9" t="s">
+      <c r="W7" s="18">
+        <v>447</v>
+      </c>
+      <c r="X7" s="18">
         <v>3</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="8" t="s">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" s="16">
+        <v>5100</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.999</v>
+      </c>
+      <c r="C8" s="15">
+        <v>7513321.5333620002</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6.6750000000000004E-3</v>
+      </c>
+      <c r="E8" s="14">
+        <v>6</v>
+      </c>
+      <c r="F8" s="14">
+        <v>447</v>
+      </c>
+      <c r="G8" s="14">
+        <v>2</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="12">
+        <f>H8-C8</f>
+        <v>-7513321.5333620002</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15">
+        <f>N8-T8</f>
+        <v>-7590241.4865159998</v>
+      </c>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="15">
+        <v>7590241.4865159998</v>
+      </c>
+      <c r="U8" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="V8" s="6">
         <v>9</v>
       </c>
+      <c r="W8" s="18">
+        <v>447</v>
+      </c>
+      <c r="X8" s="18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1020</v>
-      </c>
-      <c r="B3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B9" s="6">
         <v>0.97</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="I3" s="3">
-        <f>F3-C3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <f>J3-N3</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="4"/>
+      <c r="C9" s="15">
+        <v>7513321.4509549998</v>
+      </c>
+      <c r="D9" s="13">
+        <v>6.6750000000000004E-3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14">
+        <v>447</v>
+      </c>
+      <c r="G9" s="14">
+        <v>2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>13517257.383509999</v>
+      </c>
+      <c r="I9" s="13">
+        <v>3.2169999999999998E-3</v>
+      </c>
+      <c r="J9" s="14">
+        <v>145</v>
+      </c>
+      <c r="K9" s="12">
+        <f>H9-C9</f>
+        <v>6003935.9325549994</v>
+      </c>
+      <c r="L9" s="17">
+        <v>807</v>
+      </c>
+      <c r="M9" s="17">
+        <v>4</v>
+      </c>
+      <c r="N9" s="15">
+        <v>13517257.38343</v>
+      </c>
+      <c r="O9" s="13">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="P9" s="14">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="15">
+        <f>N9-T9</f>
+        <v>5927015.9509040006</v>
+      </c>
+      <c r="R9" s="18">
+        <v>807</v>
+      </c>
+      <c r="S9" s="18">
+        <v>4</v>
+      </c>
+      <c r="T9" s="15">
+        <v>7590241.4325259998</v>
+      </c>
+      <c r="U9" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="V9" s="6">
+        <v>9</v>
+      </c>
+      <c r="W9" s="18">
+        <v>447</v>
+      </c>
+      <c r="X9" s="18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>5100</v>
-      </c>
-      <c r="B4">
-        <v>0.97</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" ref="I4:I11" si="0">F4-C4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ref="M4:M11" si="1">J4-N4</f>
-        <v>0</v>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
+        <v>10200</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.98</v>
+      </c>
+      <c r="C10" s="15">
+        <v>7513321.4509549998</v>
+      </c>
+      <c r="D10" s="13">
+        <v>6.6750000000000004E-3</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4</v>
+      </c>
+      <c r="F10" s="14">
+        <v>447</v>
+      </c>
+      <c r="G10" s="14">
+        <v>2</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="12">
+        <f>H10-C10</f>
+        <v>-7513321.4509549998</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15">
+        <f>N10-T10</f>
+        <v>-7590241.4325259998</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="15">
+        <v>7590241.4325259998</v>
+      </c>
+      <c r="U10" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="V10" s="6">
+        <v>9</v>
+      </c>
+      <c r="W10" s="18">
+        <v>447</v>
+      </c>
+      <c r="X10" s="18">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>10200</v>
       </c>
-      <c r="B5">
-        <v>0.97</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>1020</v>
-      </c>
-      <c r="B6">
-        <v>0.98</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5100</v>
-      </c>
-      <c r="B7">
-        <v>0.98</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>10200</v>
-      </c>
-      <c r="B8">
-        <v>0.98</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>1020</v>
-      </c>
-      <c r="B9">
+      <c r="B11" s="6">
         <v>0.999</v>
       </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>5100</v>
-      </c>
-      <c r="B10">
-        <v>0.999</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10200</v>
-      </c>
-      <c r="B11">
-        <v>0.999</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C11" s="15">
+        <v>7513321.4509549998</v>
+      </c>
+      <c r="D11" s="13">
+        <v>6.6750000000000004E-3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>4</v>
+      </c>
+      <c r="F11" s="14">
+        <v>447</v>
+      </c>
+      <c r="G11" s="14">
+        <v>2</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="12">
+        <f>H11-C11</f>
+        <v>-7513321.4509549998</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15">
+        <f>N11-T11</f>
+        <v>-7590241.4325259998</v>
+      </c>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="15">
+        <v>7590241.4325259998</v>
+      </c>
+      <c r="U11" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="V11" s="6">
+        <v>9</v>
+      </c>
+      <c r="W11" s="18">
+        <v>447</v>
+      </c>
+      <c r="X11" s="18">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:X2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X11">
+      <sortCondition ref="A2"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="4">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/aleksandra_petrenko_relexsolutions_com/Documents/Desktop/WiSe23-24/Masterarbeit Specimen Delivery/Computational experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="11_F25DC773A252ABDACC1048B7115F539E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10967F9B-FD7B-47E7-A8E3-58B5623DE83F}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="11_F25DC773A252ABDACC1048B7115F539E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{077A3753-3261-48B1-AB05-AA6CAC8A3A35}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passau" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Passau!$A$2:$X$2</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>S</t>
   </si>
@@ -77,7 +78,10 @@
     <t>Number of locations</t>
   </si>
   <si>
-    <t>Time of first reaching the objective</t>
+    <t>Number of locations (prob)</t>
+  </si>
+  <si>
+    <t>Number of locations (det)</t>
   </si>
 </sst>
 </file>
@@ -110,27 +114,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -148,26 +140,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -215,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -244,7 +216,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -256,13 +227,10 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,43 +534,45 @@
     <col min="17" max="19" width="12.7265625" style="2" customWidth="1"/>
     <col min="20" max="20" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.7265625" style="1"/>
+    <col min="23" max="23" width="9.1796875" customWidth="1"/>
+    <col min="24" max="24" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="21" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="21" t="s">
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="19" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-    </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+    </row>
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -616,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>10</v>
@@ -631,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>8</v>
@@ -677,10 +647,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="22">
         <v>1020</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="22">
         <v>0.97</v>
       </c>
       <c r="C3" s="12">
@@ -708,13 +678,13 @@
         <v>28</v>
       </c>
       <c r="K3" s="12">
-        <f>H3-C3</f>
+        <f t="shared" ref="K3:K11" si="0">H3-C3</f>
         <v>5899256.985971001</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="16">
         <v>807</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="16">
         <v>9</v>
       </c>
       <c r="N3" s="15">
@@ -727,13 +697,13 @@
         <v>28</v>
       </c>
       <c r="Q3" s="15">
-        <f>N3-T3</f>
+        <f t="shared" ref="Q3:Q11" si="1">N3-T3</f>
         <v>5899256.985971001</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="17">
         <v>807</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="17">
         <v>9</v>
       </c>
       <c r="T3" s="15">
@@ -745,18 +715,18 @@
       <c r="V3" s="6">
         <v>2</v>
       </c>
-      <c r="W3" s="18">
-        <v>447</v>
-      </c>
-      <c r="X3" s="18">
+      <c r="W3" s="17">
+        <v>447</v>
+      </c>
+      <c r="X3" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="24">
+      <c r="A4" s="22">
         <v>1020</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="22">
         <v>0.98</v>
       </c>
       <c r="C4" s="15">
@@ -784,13 +754,13 @@
         <v>53</v>
       </c>
       <c r="K4" s="12">
-        <f>H4-C4</f>
+        <f t="shared" si="0"/>
         <v>6408058.607241</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <v>839</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="16">
         <v>9</v>
       </c>
       <c r="N4" s="15">
@@ -803,13 +773,13 @@
         <v>50</v>
       </c>
       <c r="Q4" s="15">
-        <f>N4-T4</f>
+        <f t="shared" si="1"/>
         <v>6408058.607241</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="17">
         <v>839</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="17">
         <v>9</v>
       </c>
       <c r="T4" s="15">
@@ -821,18 +791,18 @@
       <c r="V4" s="6">
         <v>2</v>
       </c>
-      <c r="W4" s="18">
-        <v>447</v>
-      </c>
-      <c r="X4" s="18">
+      <c r="W4" s="17">
+        <v>447</v>
+      </c>
+      <c r="X4" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <v>1020</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>0.999</v>
       </c>
       <c r="C5" s="15">
@@ -860,13 +830,13 @@
         <v>200</v>
       </c>
       <c r="K5" s="12">
-        <f>H5-C5</f>
+        <f t="shared" si="0"/>
         <v>10694789.583620999</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="16">
         <v>1091</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="16">
         <v>11</v>
       </c>
       <c r="N5" s="15">
@@ -879,13 +849,13 @@
         <v>175</v>
       </c>
       <c r="Q5" s="15">
-        <f>N5-T5</f>
+        <f t="shared" si="1"/>
         <v>10694789.583620999</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="17">
         <v>1091</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="17">
         <v>11</v>
       </c>
       <c r="T5" s="15">
@@ -897,18 +867,18 @@
       <c r="V5" s="6">
         <v>2</v>
       </c>
-      <c r="W5" s="18">
-        <v>447</v>
-      </c>
-      <c r="X5" s="18">
+      <c r="W5" s="17">
+        <v>447</v>
+      </c>
+      <c r="X5" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="24">
+      <c r="A6" s="22">
         <v>5100</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>0.97</v>
       </c>
       <c r="C6" s="15">
@@ -936,13 +906,13 @@
         <v>40</v>
       </c>
       <c r="K6" s="12">
-        <f>H6-C6</f>
+        <f t="shared" si="0"/>
         <v>6003935.9077280005</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="16">
         <v>807</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="16">
         <v>4</v>
       </c>
       <c r="N6" s="15">
@@ -955,13 +925,13 @@
         <v>16</v>
       </c>
       <c r="Q6" s="15">
-        <f>N6-T6</f>
+        <f t="shared" si="1"/>
         <v>5927015.9586840002</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="17">
         <v>807</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="17">
         <v>4</v>
       </c>
       <c r="T6" s="15">
@@ -973,18 +943,18 @@
       <c r="V6" s="6">
         <v>9</v>
       </c>
-      <c r="W6" s="18">
-        <v>447</v>
-      </c>
-      <c r="X6" s="18">
+      <c r="W6" s="17">
+        <v>447</v>
+      </c>
+      <c r="X6" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="22">
         <v>5100</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="22">
         <v>0.98</v>
       </c>
       <c r="C7" s="15">
@@ -1002,24 +972,44 @@
       <c r="G7" s="14">
         <v>2</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
+      <c r="H7" s="15">
+        <v>14102978.987980001</v>
+      </c>
+      <c r="I7" s="13">
+        <v>6.731E-3</v>
+      </c>
+      <c r="J7" s="14">
+        <v>54</v>
+      </c>
       <c r="K7" s="12">
-        <f>H7-C7</f>
-        <v>-7513321.5333620002</v>
-      </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
+        <f t="shared" si="0"/>
+        <v>6589657.4546180004</v>
+      </c>
+      <c r="L7" s="16">
+        <v>839</v>
+      </c>
+      <c r="M7" s="16">
+        <v>5</v>
+      </c>
+      <c r="N7" s="15">
+        <v>14102978.99065</v>
+      </c>
+      <c r="O7" s="13">
+        <v>3.8170000000000001E-3</v>
+      </c>
+      <c r="P7" s="14">
+        <v>27</v>
+      </c>
       <c r="Q7" s="15">
-        <f>N7-T7</f>
-        <v>-7590241.4865159998</v>
-      </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
+        <f t="shared" si="1"/>
+        <v>6512737.5041340003</v>
+      </c>
+      <c r="R7" s="17">
+        <v>839</v>
+      </c>
+      <c r="S7" s="17">
+        <v>5</v>
+      </c>
       <c r="T7" s="15">
         <v>7590241.4865159998</v>
       </c>
@@ -1029,18 +1019,18 @@
       <c r="V7" s="6">
         <v>9</v>
       </c>
-      <c r="W7" s="18">
-        <v>447</v>
-      </c>
-      <c r="X7" s="18">
+      <c r="W7" s="17">
+        <v>447</v>
+      </c>
+      <c r="X7" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="16">
+      <c r="A8" s="22">
         <v>5100</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="22">
         <v>0.999</v>
       </c>
       <c r="C8" s="15">
@@ -1058,24 +1048,44 @@
       <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="15">
+        <v>18312790.61366</v>
+      </c>
+      <c r="I8" s="13">
+        <v>5.3140000000000001E-3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>41</v>
+      </c>
       <c r="K8" s="12">
-        <f>H8-C8</f>
-        <v>-7513321.5333620002</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
+        <f t="shared" si="0"/>
+        <v>10799469.080297999</v>
+      </c>
+      <c r="L8" s="14">
+        <v>1091</v>
+      </c>
+      <c r="M8" s="16">
+        <v>6</v>
+      </c>
+      <c r="N8" s="15">
+        <v>18312790.615049999</v>
+      </c>
+      <c r="O8" s="13">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="P8" s="14">
+        <v>28</v>
+      </c>
       <c r="Q8" s="15">
-        <f>N8-T8</f>
-        <v>-7590241.4865159998</v>
-      </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
+        <f t="shared" si="1"/>
+        <v>10722549.128534</v>
+      </c>
+      <c r="R8" s="17">
+        <v>1091</v>
+      </c>
+      <c r="S8" s="17">
+        <v>6</v>
+      </c>
       <c r="T8" s="15">
         <v>7590241.4865159998</v>
       </c>
@@ -1085,18 +1095,18 @@
       <c r="V8" s="6">
         <v>9</v>
       </c>
-      <c r="W8" s="18">
-        <v>447</v>
-      </c>
-      <c r="X8" s="18">
+      <c r="W8" s="17">
+        <v>447</v>
+      </c>
+      <c r="X8" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="22">
         <v>10200</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="22">
         <v>0.97</v>
       </c>
       <c r="C9" s="15">
@@ -1124,13 +1134,13 @@
         <v>145</v>
       </c>
       <c r="K9" s="12">
-        <f>H9-C9</f>
+        <f t="shared" si="0"/>
         <v>6003935.9325549994</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="16">
         <v>807</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="16">
         <v>4</v>
       </c>
       <c r="N9" s="15">
@@ -1143,13 +1153,13 @@
         <v>29</v>
       </c>
       <c r="Q9" s="15">
-        <f>N9-T9</f>
+        <f t="shared" si="1"/>
         <v>5927015.9509040006</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="17">
         <v>807</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="17">
         <v>4</v>
       </c>
       <c r="T9" s="15">
@@ -1161,18 +1171,18 @@
       <c r="V9" s="6">
         <v>9</v>
       </c>
-      <c r="W9" s="18">
-        <v>447</v>
-      </c>
-      <c r="X9" s="18">
+      <c r="W9" s="17">
+        <v>447</v>
+      </c>
+      <c r="X9" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="16">
+      <c r="A10" s="22">
         <v>10200</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="22">
         <v>0.98</v>
       </c>
       <c r="C10" s="15">
@@ -1190,24 +1200,44 @@
       <c r="G10" s="14">
         <v>2</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="H10" s="15">
+        <v>14102978.92295</v>
+      </c>
+      <c r="I10" s="13">
+        <v>6.731E-3</v>
+      </c>
+      <c r="J10" s="14">
+        <v>68</v>
+      </c>
       <c r="K10" s="12">
-        <f>H10-C10</f>
-        <v>-7513321.4509549998</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
+        <f t="shared" si="0"/>
+        <v>6589657.4719949998</v>
+      </c>
+      <c r="L10" s="16">
+        <v>839</v>
+      </c>
+      <c r="M10" s="16">
+        <v>5</v>
+      </c>
+      <c r="N10" s="15">
+        <v>14102978.939780001</v>
+      </c>
+      <c r="O10" s="13">
+        <v>3.8170000000000001E-3</v>
+      </c>
+      <c r="P10" s="14">
+        <v>56</v>
+      </c>
       <c r="Q10" s="15">
-        <f>N10-T10</f>
-        <v>-7590241.4325259998</v>
-      </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
+        <f t="shared" si="1"/>
+        <v>6512737.5072540008</v>
+      </c>
+      <c r="R10" s="17">
+        <v>839</v>
+      </c>
+      <c r="S10" s="17">
+        <v>5</v>
+      </c>
       <c r="T10" s="15">
         <v>7590241.4325259998</v>
       </c>
@@ -1217,18 +1247,18 @@
       <c r="V10" s="6">
         <v>9</v>
       </c>
-      <c r="W10" s="18">
-        <v>447</v>
-      </c>
-      <c r="X10" s="18">
+      <c r="W10" s="17">
+        <v>447</v>
+      </c>
+      <c r="X10" s="17">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="22">
         <v>10200</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="22">
         <v>0.999</v>
       </c>
       <c r="C11" s="15">
@@ -1246,24 +1276,44 @@
       <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
+      <c r="H11" s="15">
+        <v>18312790.580770001</v>
+      </c>
+      <c r="I11" s="13">
+        <v>5.3140000000000001E-3</v>
+      </c>
+      <c r="J11" s="14">
+        <v>90</v>
+      </c>
       <c r="K11" s="12">
-        <f>H11-C11</f>
-        <v>-7513321.4509549998</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
+        <f t="shared" si="0"/>
+        <v>10799469.129815001</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1091</v>
+      </c>
+      <c r="M11" s="16">
+        <v>6</v>
+      </c>
+      <c r="N11" s="15">
+        <v>18312790.52186</v>
+      </c>
+      <c r="O11" s="13">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="P11" s="14">
+        <v>89</v>
+      </c>
       <c r="Q11" s="15">
-        <f>N11-T11</f>
-        <v>-7590241.4325259998</v>
-      </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
+        <f t="shared" si="1"/>
+        <v>10722549.089334</v>
+      </c>
+      <c r="R11" s="17">
+        <v>1091</v>
+      </c>
+      <c r="S11" s="17">
+        <v>6</v>
+      </c>
       <c r="T11" s="15">
         <v>7590241.4325259998</v>
       </c>
@@ -1273,10 +1323,10 @@
       <c r="V11" s="6">
         <v>9</v>
       </c>
-      <c r="W11" s="18">
-        <v>447</v>
-      </c>
-      <c r="X11" s="18">
+      <c r="W11" s="17">
+        <v>447</v>
+      </c>
+      <c r="X11" s="17">
         <v>3</v>
       </c>
     </row>
@@ -1294,4 +1344,183 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FEC51-21D1-452F-BD55-4C1D1E46BE82}">
+  <dimension ref="A2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="B3" s="16">
+        <v>807</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1020</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="G3" s="16">
+        <v>9</v>
+      </c>
+      <c r="H3" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="B4" s="16">
+        <v>839</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1020</v>
+      </c>
+      <c r="F4" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="G4" s="16">
+        <v>9</v>
+      </c>
+      <c r="H4" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="22">
+        <v>0.999</v>
+      </c>
+      <c r="B5" s="16">
+        <v>1091</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1020</v>
+      </c>
+      <c r="F5" s="22">
+        <v>0.999</v>
+      </c>
+      <c r="G5" s="16">
+        <v>11</v>
+      </c>
+      <c r="H5" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E6" s="22">
+        <v>5100</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="G6" s="16">
+        <v>4</v>
+      </c>
+      <c r="H6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E7" s="22">
+        <v>5100</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="G7" s="16">
+        <v>5</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E8" s="22">
+        <v>5100</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.999</v>
+      </c>
+      <c r="G8" s="16">
+        <v>6</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E9" s="22">
+        <v>10200</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0.97</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E10" s="22">
+        <v>10200</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.98</v>
+      </c>
+      <c r="G10" s="16">
+        <v>5</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E11" s="22">
+        <v>10200</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.999</v>
+      </c>
+      <c r="G11" s="16">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/aleksandra_petrenko_relexsolutions_com/Documents/Desktop/WiSe23-24/Masterarbeit Specimen Delivery/Computational experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="11_F25DC773A252ABDACC1048B7115F539E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{077A3753-3261-48B1-AB05-AA6CAC8A3A35}"/>
+  <xr:revisionPtr revIDLastSave="477" documentId="11_F25DC773A252ABDACC1048B7115F539E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02366C3F-1D60-48C7-8426-0998D4D5617A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passau" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>S</t>
   </si>
@@ -83,6 +83,12 @@
   <si>
     <t>Number of locations (det)</t>
   </si>
+  <si>
+    <t>Average price of uncertainty</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
 </sst>
 </file>
 
@@ -91,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +119,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -187,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -218,19 +238,24 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,67 +537,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="16.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="2"/>
-    <col min="5" max="7" width="8.7265625" style="3"/>
-    <col min="8" max="8" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="14.7265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="13" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" style="3" customWidth="1"/>
     <col min="14" max="14" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7265625" style="2"/>
     <col min="16" max="16" width="8.7265625" style="5"/>
     <col min="17" max="19" width="12.7265625" style="2" customWidth="1"/>
     <col min="20" max="20" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7265625" style="1"/>
-    <col min="23" max="23" width="9.1796875" customWidth="1"/>
-    <col min="24" max="24" width="10.08984375" customWidth="1"/>
+    <col min="21" max="21" width="11.36328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7265625" style="1"/>
+    <col min="24" max="24" width="9.1796875" customWidth="1"/>
+    <col min="25" max="25" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="18" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-    </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -612,45 +627,12 @@
       <c r="M2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>1020</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="6">
         <v>0.97</v>
       </c>
       <c r="C3" s="12">
@@ -678,7 +660,7 @@
         <v>28</v>
       </c>
       <c r="K3" s="12">
-        <f t="shared" ref="K3:K11" si="0">H3-C3</f>
+        <f>H3-C3</f>
         <v>5899256.985971001</v>
       </c>
       <c r="L3" s="16">
@@ -687,46 +669,17 @@
       <c r="M3" s="16">
         <v>9</v>
       </c>
-      <c r="N3" s="15">
-        <v>13901858.812890001</v>
-      </c>
-      <c r="O3" s="13">
-        <v>0</v>
-      </c>
-      <c r="P3" s="14">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="15">
-        <f t="shared" ref="Q3:Q11" si="1">N3-T3</f>
-        <v>5899256.985971001</v>
-      </c>
-      <c r="R3" s="17">
-        <v>807</v>
-      </c>
-      <c r="S3" s="17">
-        <v>9</v>
-      </c>
-      <c r="T3" s="15">
-        <v>8002601.8269189997</v>
-      </c>
-      <c r="U3" s="13">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
-        <v>2</v>
-      </c>
-      <c r="W3" s="17">
-        <v>447</v>
-      </c>
-      <c r="X3" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
+      <c r="N3" s="2"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="2"/>
+      <c r="S3" s="1"/>
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>1020</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="6">
         <v>0.98</v>
       </c>
       <c r="C4" s="15">
@@ -754,7 +707,7 @@
         <v>53</v>
       </c>
       <c r="K4" s="12">
-        <f t="shared" si="0"/>
+        <f>H4-C4</f>
         <v>6408058.607241</v>
       </c>
       <c r="L4" s="16">
@@ -763,46 +716,17 @@
       <c r="M4" s="16">
         <v>9</v>
       </c>
-      <c r="N4" s="15">
-        <v>14410660.43416</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q4" s="15">
-        <f t="shared" si="1"/>
-        <v>6408058.607241</v>
-      </c>
-      <c r="R4" s="17">
-        <v>839</v>
-      </c>
-      <c r="S4" s="17">
-        <v>9</v>
-      </c>
-      <c r="T4" s="15">
-        <v>8002601.8269189997</v>
-      </c>
-      <c r="U4" s="13">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6">
-        <v>2</v>
-      </c>
-      <c r="W4" s="17">
-        <v>447</v>
-      </c>
-      <c r="X4" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
+      <c r="N4" s="2"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="V4"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>1020</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="6">
         <v>0.999</v>
       </c>
       <c r="C5" s="15">
@@ -830,7 +754,7 @@
         <v>200</v>
       </c>
       <c r="K5" s="12">
-        <f t="shared" si="0"/>
+        <f>H5-C5</f>
         <v>10694789.583620999</v>
       </c>
       <c r="L5" s="16">
@@ -839,46 +763,17 @@
       <c r="M5" s="16">
         <v>11</v>
       </c>
-      <c r="N5" s="15">
-        <v>18697391.41054</v>
-      </c>
-      <c r="O5" s="13">
-        <v>3.1770000000000001E-3</v>
-      </c>
-      <c r="P5" s="14">
-        <v>175</v>
-      </c>
-      <c r="Q5" s="15">
-        <f t="shared" si="1"/>
-        <v>10694789.583620999</v>
-      </c>
-      <c r="R5" s="17">
-        <v>1091</v>
-      </c>
-      <c r="S5" s="17">
-        <v>11</v>
-      </c>
-      <c r="T5" s="15">
-        <v>8002601.8269189997</v>
-      </c>
-      <c r="U5" s="13">
-        <v>0</v>
-      </c>
-      <c r="V5" s="6">
-        <v>2</v>
-      </c>
-      <c r="W5" s="17">
-        <v>447</v>
-      </c>
-      <c r="X5" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A6" s="22">
+      <c r="N5" s="2"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="2"/>
+      <c r="S5" s="1"/>
+      <c r="V5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>5100</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="6">
         <v>0.97</v>
       </c>
       <c r="C6" s="15">
@@ -906,7 +801,7 @@
         <v>40</v>
       </c>
       <c r="K6" s="12">
-        <f t="shared" si="0"/>
+        <f>H6-C6</f>
         <v>6003935.9077280005</v>
       </c>
       <c r="L6" s="16">
@@ -915,46 +810,17 @@
       <c r="M6" s="16">
         <v>4</v>
       </c>
-      <c r="N6" s="15">
-        <v>13517257.4452</v>
-      </c>
-      <c r="O6" s="13">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="P6" s="14">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="15">
-        <f t="shared" si="1"/>
-        <v>5927015.9586840002</v>
-      </c>
-      <c r="R6" s="17">
-        <v>807</v>
-      </c>
-      <c r="S6" s="17">
-        <v>4</v>
-      </c>
-      <c r="T6" s="15">
-        <v>7590241.4865159998</v>
-      </c>
-      <c r="U6" s="13">
-        <v>1.1327E-2</v>
-      </c>
-      <c r="V6" s="6">
-        <v>9</v>
-      </c>
-      <c r="W6" s="17">
-        <v>447</v>
-      </c>
-      <c r="X6" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A7" s="22">
+      <c r="N6" s="2"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="2"/>
+      <c r="S6" s="1"/>
+      <c r="V6"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>5100</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="6">
         <v>0.98</v>
       </c>
       <c r="C7" s="15">
@@ -982,7 +848,7 @@
         <v>54</v>
       </c>
       <c r="K7" s="12">
-        <f t="shared" si="0"/>
+        <f>H7-C7</f>
         <v>6589657.4546180004</v>
       </c>
       <c r="L7" s="16">
@@ -991,46 +857,17 @@
       <c r="M7" s="16">
         <v>5</v>
       </c>
-      <c r="N7" s="15">
-        <v>14102978.99065</v>
-      </c>
-      <c r="O7" s="13">
-        <v>3.8170000000000001E-3</v>
-      </c>
-      <c r="P7" s="14">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="1"/>
-        <v>6512737.5041340003</v>
-      </c>
-      <c r="R7" s="17">
-        <v>839</v>
-      </c>
-      <c r="S7" s="17">
-        <v>5</v>
-      </c>
-      <c r="T7" s="15">
-        <v>7590241.4865159998</v>
-      </c>
-      <c r="U7" s="13">
-        <v>1.1327E-2</v>
-      </c>
-      <c r="V7" s="6">
-        <v>9</v>
-      </c>
-      <c r="W7" s="17">
-        <v>447</v>
-      </c>
-      <c r="X7" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="22">
+      <c r="N7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="V7"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>5100</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="6">
         <v>0.999</v>
       </c>
       <c r="C8" s="15">
@@ -1054,11 +891,11 @@
       <c r="I8" s="13">
         <v>5.3140000000000001E-3</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="14">
         <v>41</v>
       </c>
       <c r="K8" s="12">
-        <f t="shared" si="0"/>
+        <f>H8-C8</f>
         <v>10799469.080297999</v>
       </c>
       <c r="L8" s="14">
@@ -1067,46 +904,17 @@
       <c r="M8" s="16">
         <v>6</v>
       </c>
-      <c r="N8" s="15">
-        <v>18312790.615049999</v>
-      </c>
-      <c r="O8" s="13">
-        <v>3.0699999999999998E-3</v>
-      </c>
-      <c r="P8" s="14">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="1"/>
-        <v>10722549.128534</v>
-      </c>
-      <c r="R8" s="17">
-        <v>1091</v>
-      </c>
-      <c r="S8" s="17">
-        <v>6</v>
-      </c>
-      <c r="T8" s="15">
-        <v>7590241.4865159998</v>
-      </c>
-      <c r="U8" s="13">
-        <v>1.1327E-2</v>
-      </c>
-      <c r="V8" s="6">
-        <v>9</v>
-      </c>
-      <c r="W8" s="17">
-        <v>447</v>
-      </c>
-      <c r="X8" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="22">
+      <c r="N8" s="2"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="2"/>
+      <c r="S8" s="1"/>
+      <c r="V8"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>10200</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="6">
         <v>0.97</v>
       </c>
       <c r="C9" s="15">
@@ -1134,7 +942,7 @@
         <v>145</v>
       </c>
       <c r="K9" s="12">
-        <f t="shared" si="0"/>
+        <f>H9-C9</f>
         <v>6003935.9325549994</v>
       </c>
       <c r="L9" s="16">
@@ -1143,46 +951,17 @@
       <c r="M9" s="16">
         <v>4</v>
       </c>
-      <c r="N9" s="15">
-        <v>13517257.38343</v>
-      </c>
-      <c r="O9" s="13">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="P9" s="14">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="15">
-        <f t="shared" si="1"/>
-        <v>5927015.9509040006</v>
-      </c>
-      <c r="R9" s="17">
-        <v>807</v>
-      </c>
-      <c r="S9" s="17">
-        <v>4</v>
-      </c>
-      <c r="T9" s="15">
-        <v>7590241.4325259998</v>
-      </c>
-      <c r="U9" s="13">
-        <v>1.1327E-2</v>
-      </c>
-      <c r="V9" s="6">
-        <v>9</v>
-      </c>
-      <c r="W9" s="17">
-        <v>447</v>
-      </c>
-      <c r="X9" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="22">
+      <c r="N9" s="2"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="2"/>
+      <c r="S9" s="1"/>
+      <c r="V9"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>10200</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="6">
         <v>0.98</v>
       </c>
       <c r="C10" s="15">
@@ -1210,7 +989,7 @@
         <v>68</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" si="0"/>
+        <f>H10-C10</f>
         <v>6589657.4719949998</v>
       </c>
       <c r="L10" s="16">
@@ -1219,46 +998,17 @@
       <c r="M10" s="16">
         <v>5</v>
       </c>
-      <c r="N10" s="15">
-        <v>14102978.939780001</v>
-      </c>
-      <c r="O10" s="13">
-        <v>3.8170000000000001E-3</v>
-      </c>
-      <c r="P10" s="14">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="15">
-        <f t="shared" si="1"/>
-        <v>6512737.5072540008</v>
-      </c>
-      <c r="R10" s="17">
-        <v>839</v>
-      </c>
-      <c r="S10" s="17">
-        <v>5</v>
-      </c>
-      <c r="T10" s="15">
-        <v>7590241.4325259998</v>
-      </c>
-      <c r="U10" s="13">
-        <v>1.1327E-2</v>
-      </c>
-      <c r="V10" s="6">
-        <v>9</v>
-      </c>
-      <c r="W10" s="17">
-        <v>447</v>
-      </c>
-      <c r="X10" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="22">
+      <c r="N10" s="2"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="2"/>
+      <c r="S10" s="1"/>
+      <c r="V10"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>10200</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="6">
         <v>0.999</v>
       </c>
       <c r="C11" s="15">
@@ -1286,7 +1036,7 @@
         <v>90</v>
       </c>
       <c r="K11" s="12">
-        <f t="shared" si="0"/>
+        <f>H11-C11</f>
         <v>10799469.129815001</v>
       </c>
       <c r="L11" s="16">
@@ -1295,52 +1045,515 @@
       <c r="M11" s="16">
         <v>6</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="2"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="2"/>
+      <c r="S11" s="1"/>
+      <c r="V11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="2"/>
+      <c r="S13" s="1"/>
+      <c r="V13"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C14" s="15">
+        <v>8002601.8269189997</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17">
+        <v>447</v>
+      </c>
+      <c r="G14" s="17">
+        <v>10</v>
+      </c>
+      <c r="H14" s="15">
+        <v>13901858.812890001</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <v>28</v>
+      </c>
+      <c r="K14" s="15">
+        <f>H14-C14</f>
+        <v>5899256.985971001</v>
+      </c>
+      <c r="L14" s="17">
+        <v>807</v>
+      </c>
+      <c r="M14" s="17">
+        <v>9</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="2"/>
+      <c r="S14" s="1"/>
+      <c r="V14"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C15" s="15">
+        <v>8002601.8269189997</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17">
+        <v>447</v>
+      </c>
+      <c r="G15" s="17">
+        <v>10</v>
+      </c>
+      <c r="H15" s="15">
+        <v>14410660.43416</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>50</v>
+      </c>
+      <c r="K15" s="15">
+        <f>H15-C15</f>
+        <v>6408058.607241</v>
+      </c>
+      <c r="L15" s="17">
+        <v>839</v>
+      </c>
+      <c r="M15" s="17">
+        <v>9</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="2"/>
+      <c r="S15" s="1"/>
+      <c r="V15"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="C16" s="15">
+        <v>8002601.8269189997</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17">
+        <v>447</v>
+      </c>
+      <c r="G16" s="17">
+        <v>10</v>
+      </c>
+      <c r="H16" s="15">
+        <v>18697391.41054</v>
+      </c>
+      <c r="I16" s="13">
+        <v>3.1770000000000001E-3</v>
+      </c>
+      <c r="J16" s="14">
+        <v>175</v>
+      </c>
+      <c r="K16" s="15">
+        <f>H16-C16</f>
+        <v>10694789.583620999</v>
+      </c>
+      <c r="L16" s="17">
+        <v>1091</v>
+      </c>
+      <c r="M16" s="17">
+        <v>11</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="2"/>
+      <c r="S16" s="1"/>
+      <c r="V16"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>5100</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C17" s="15">
+        <v>7590241.4865159998</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9</v>
+      </c>
+      <c r="F17" s="17">
+        <v>447</v>
+      </c>
+      <c r="G17" s="17">
+        <v>3</v>
+      </c>
+      <c r="H17" s="15">
+        <v>13517257.4452</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="J17" s="14">
+        <v>16</v>
+      </c>
+      <c r="K17" s="15">
+        <f>H17-C17</f>
+        <v>5927015.9586840002</v>
+      </c>
+      <c r="L17" s="17">
+        <v>807</v>
+      </c>
+      <c r="M17" s="17">
+        <v>4</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="2"/>
+      <c r="S17" s="1"/>
+      <c r="V17"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>5100</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C18" s="15">
+        <v>7590241.4865159998</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>9</v>
+      </c>
+      <c r="F18" s="17">
+        <v>447</v>
+      </c>
+      <c r="G18" s="17">
+        <v>3</v>
+      </c>
+      <c r="H18" s="15">
+        <v>14102978.99065</v>
+      </c>
+      <c r="I18" s="13">
+        <v>3.8170000000000001E-3</v>
+      </c>
+      <c r="J18" s="14">
+        <v>27</v>
+      </c>
+      <c r="K18" s="15">
+        <f>H18-C18</f>
+        <v>6512737.5041340003</v>
+      </c>
+      <c r="L18" s="17">
+        <v>839</v>
+      </c>
+      <c r="M18" s="17">
+        <v>5</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="2"/>
+      <c r="S18" s="1"/>
+      <c r="V18"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>5100</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="C19" s="15">
+        <v>7590241.4865159998</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>9</v>
+      </c>
+      <c r="F19" s="17">
+        <v>447</v>
+      </c>
+      <c r="G19" s="17">
+        <v>3</v>
+      </c>
+      <c r="H19" s="15">
+        <v>18312790.615049999</v>
+      </c>
+      <c r="I19" s="13">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="J19" s="14">
+        <v>28</v>
+      </c>
+      <c r="K19" s="15">
+        <f>H19-C19</f>
+        <v>10722549.128534</v>
+      </c>
+      <c r="L19" s="17">
+        <v>1091</v>
+      </c>
+      <c r="M19" s="17">
+        <v>6</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="2"/>
+      <c r="S19" s="1"/>
+      <c r="V19"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C20" s="15">
+        <v>7590241.4325259998</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>9</v>
+      </c>
+      <c r="F20" s="17">
+        <v>447</v>
+      </c>
+      <c r="G20" s="17">
+        <v>3</v>
+      </c>
+      <c r="H20" s="15">
+        <v>13517257.38343</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="J20" s="14">
+        <v>29</v>
+      </c>
+      <c r="K20" s="15">
+        <f>H20-C20</f>
+        <v>5927015.9509040006</v>
+      </c>
+      <c r="L20" s="17">
+        <v>807</v>
+      </c>
+      <c r="M20" s="17">
+        <v>4</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="2"/>
+      <c r="S20" s="1"/>
+      <c r="V20"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C21" s="15">
+        <v>7590241.4325259998</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>9</v>
+      </c>
+      <c r="F21" s="17">
+        <v>447</v>
+      </c>
+      <c r="G21" s="17">
+        <v>3</v>
+      </c>
+      <c r="H21" s="15">
+        <v>14102978.939780001</v>
+      </c>
+      <c r="I21" s="13">
+        <v>3.8170000000000001E-3</v>
+      </c>
+      <c r="J21" s="14">
+        <v>56</v>
+      </c>
+      <c r="K21" s="15">
+        <f>H21-C21</f>
+        <v>6512737.5072540008</v>
+      </c>
+      <c r="L21" s="17">
+        <v>839</v>
+      </c>
+      <c r="M21" s="17">
+        <v>5</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="2"/>
+      <c r="S21" s="1"/>
+      <c r="V21"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="C22" s="15">
+        <v>7590241.4325259998</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1.1327E-2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>9</v>
+      </c>
+      <c r="F22" s="17">
+        <v>447</v>
+      </c>
+      <c r="G22" s="17">
+        <v>3</v>
+      </c>
+      <c r="H22" s="15">
         <v>18312790.52186</v>
       </c>
-      <c r="O11" s="13">
+      <c r="I22" s="13">
         <v>3.0699999999999998E-3</v>
       </c>
-      <c r="P11" s="14">
+      <c r="J22" s="14">
         <v>89</v>
       </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="1"/>
+      <c r="K22" s="15">
+        <f>H22-C22</f>
         <v>10722549.089334</v>
       </c>
-      <c r="R11" s="17">
+      <c r="L22" s="17">
         <v>1091</v>
       </c>
-      <c r="S11" s="17">
+      <c r="M22" s="17">
         <v>6</v>
       </c>
-      <c r="T11" s="15">
-        <v>7590241.4325259998</v>
-      </c>
-      <c r="U11" s="13">
-        <v>1.1327E-2</v>
-      </c>
-      <c r="V11" s="6">
-        <v>9</v>
-      </c>
-      <c r="W11" s="17">
-        <v>447</v>
-      </c>
-      <c r="X11" s="17">
-        <v>3</v>
-      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="2"/>
+      <c r="S22" s="1"/>
+      <c r="V22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:X2" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X11">
+  <autoFilter ref="A2:Y2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Y11">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="4">
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="C1:G1"/>
+  <mergeCells count="6">
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1348,15 +1561,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FEC51-21D1-452F-BD55-4C1D1E46BE82}">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1375,18 +1591,27 @@
       <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="22">
+      <c r="K2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>0.97</v>
       </c>
       <c r="B3" s="16">
         <v>807</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="6">
         <v>1020</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="6">
         <v>0.97</v>
       </c>
       <c r="G3" s="16">
@@ -1395,18 +1620,43 @@
       <c r="H3" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="22">
+      <c r="K3" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(M3:R3)</f>
+        <v>5943402.9536355017</v>
+      </c>
+      <c r="M3">
+        <v>5899256.985971001</v>
+      </c>
+      <c r="N3">
+        <v>6003935.9077280005</v>
+      </c>
+      <c r="O3">
+        <v>6003935.9325549994</v>
+      </c>
+      <c r="P3">
+        <v>5899256.985971001</v>
+      </c>
+      <c r="Q3">
+        <v>5927015.9586840002</v>
+      </c>
+      <c r="R3">
+        <v>5927015.9509040006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>0.98</v>
       </c>
       <c r="B4" s="16">
         <v>839</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="6">
         <v>1020</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="6">
         <v>0.98</v>
       </c>
       <c r="G4" s="16">
@@ -1415,18 +1665,43 @@
       <c r="H4" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="22">
+      <c r="K4" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L5" si="0">AVERAGE(M4:R4)</f>
+        <v>6503484.5254138336</v>
+      </c>
+      <c r="M4">
+        <v>6408058.607241</v>
+      </c>
+      <c r="N4">
+        <v>6589657.4546180004</v>
+      </c>
+      <c r="O4">
+        <v>6589657.4719949998</v>
+      </c>
+      <c r="P4">
+        <v>6408058.607241</v>
+      </c>
+      <c r="Q4">
+        <v>6512737.5041340003</v>
+      </c>
+      <c r="R4">
+        <v>6512737.5072540008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>0.999</v>
       </c>
       <c r="B5" s="16">
         <v>1091</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="6">
         <v>1020</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="6">
         <v>0.999</v>
       </c>
       <c r="G5" s="16">
@@ -1435,12 +1710,37 @@
       <c r="H5" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E6" s="22">
+      <c r="K5" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>10738935.932537166</v>
+      </c>
+      <c r="M5">
+        <v>10694789.583620999</v>
+      </c>
+      <c r="N5">
+        <v>10799469.080297999</v>
+      </c>
+      <c r="O5">
+        <v>10799469.129815001</v>
+      </c>
+      <c r="P5">
+        <v>10694789.583620999</v>
+      </c>
+      <c r="Q5">
+        <v>10722549.128534</v>
+      </c>
+      <c r="R5">
+        <v>10722549.089334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E6" s="6">
         <v>5100</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="6">
         <v>0.97</v>
       </c>
       <c r="G6" s="16">
@@ -1450,11 +1750,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E7" s="22">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E7" s="6">
         <v>5100</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="6">
         <v>0.98</v>
       </c>
       <c r="G7" s="16">
@@ -1464,11 +1764,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E8" s="22">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E8" s="6">
         <v>5100</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="6">
         <v>0.999</v>
       </c>
       <c r="G8" s="16">
@@ -1478,11 +1778,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E9" s="22">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E9" s="6">
         <v>10200</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="6">
         <v>0.97</v>
       </c>
       <c r="G9" s="16">
@@ -1492,11 +1792,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E10" s="22">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E10" s="6">
         <v>10200</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="6">
         <v>0.98</v>
       </c>
       <c r="G10" s="16">
@@ -1506,11 +1806,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E11" s="22">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E11" s="6">
         <v>10200</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="6">
         <v>0.999</v>
       </c>
       <c r="G11" s="16">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://relexsolutions-my.sharepoint.com/personal/aleksandra_petrenko_relexsolutions_com/Documents/Desktop/WiSe23-24/Masterarbeit Specimen Delivery/Computational experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="477" documentId="11_F25DC773A252ABDACC1048B7115F539E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02366C3F-1D60-48C7-8426-0998D4D5617A}"/>
+  <xr:revisionPtr revIDLastSave="520" documentId="11_F25DC773A252ABDACC1048B7115F539E5ADE58F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DE3E3D2-8186-4815-9D3F-110BC0EEC587}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passau" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Passau!$A$2:$X$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Passau!$A$2:$W$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>S</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Parameters</t>
+  </si>
+  <si>
+    <t>Deterministic</t>
+  </si>
+  <si>
+    <t>Probabilistic</t>
+  </si>
+  <si>
+    <t>Deterministic with relaxation</t>
+  </si>
+  <si>
+    <t>Probabilistic with relaxation</t>
   </si>
 </sst>
 </file>
@@ -238,10 +250,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -253,7 +262,10 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -537,57 +549,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" style="2" customWidth="1"/>
     <col min="6" max="7" width="8.7265625" style="3"/>
     <col min="8" max="8" width="13" style="3" customWidth="1"/>
     <col min="9" max="9" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6328125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14.7265625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="8.7265625" style="5"/>
-    <col min="17" max="19" width="12.7265625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.36328125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7265625" style="1"/>
-    <col min="24" max="24" width="9.1796875" customWidth="1"/>
-    <col min="25" max="25" width="10.08984375" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" style="2"/>
+    <col min="15" max="15" width="8.7265625" style="5"/>
+    <col min="16" max="18" width="12.7265625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.36328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" style="1"/>
+    <col min="23" max="23" width="9.1796875" customWidth="1"/>
+    <col min="24" max="24" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -609,26 +612,8 @@
       <c r="G2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1020</v>
       </c>
@@ -650,32 +635,13 @@
       <c r="G3" s="14">
         <v>10</v>
       </c>
-      <c r="H3" s="15">
-        <v>13901858.812890001</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="14">
-        <v>28</v>
-      </c>
-      <c r="K3" s="12">
-        <f>H3-C3</f>
-        <v>5899256.985971001</v>
-      </c>
-      <c r="L3" s="16">
-        <v>807</v>
-      </c>
-      <c r="M3" s="16">
-        <v>9</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="2"/>
-      <c r="S3" s="1"/>
-      <c r="V3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M3" s="2"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="2"/>
+      <c r="R3" s="1"/>
+      <c r="U3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1020</v>
       </c>
@@ -697,32 +663,13 @@
       <c r="G4" s="14">
         <v>10</v>
       </c>
-      <c r="H4" s="15">
-        <v>14410660.43416</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14">
-        <v>53</v>
-      </c>
-      <c r="K4" s="12">
-        <f>H4-C4</f>
-        <v>6408058.607241</v>
-      </c>
-      <c r="L4" s="16">
-        <v>839</v>
-      </c>
-      <c r="M4" s="16">
-        <v>9</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="2"/>
-      <c r="S4" s="1"/>
-      <c r="V4"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M4" s="2"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="2"/>
+      <c r="R4" s="1"/>
+      <c r="U4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1020</v>
       </c>
@@ -744,32 +691,13 @@
       <c r="G5" s="14">
         <v>10</v>
       </c>
-      <c r="H5" s="15">
-        <v>18697391.41054</v>
-      </c>
-      <c r="I5" s="13">
-        <v>2.4819999999999998E-3</v>
-      </c>
-      <c r="J5" s="14">
-        <v>200</v>
-      </c>
-      <c r="K5" s="12">
-        <f>H5-C5</f>
-        <v>10694789.583620999</v>
-      </c>
-      <c r="L5" s="16">
-        <v>1091</v>
-      </c>
-      <c r="M5" s="16">
-        <v>11</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="2"/>
-      <c r="S5" s="1"/>
-      <c r="V5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M5" s="2"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="U5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5100</v>
       </c>
@@ -791,32 +719,13 @@
       <c r="G6" s="14">
         <v>2</v>
       </c>
-      <c r="H6" s="15">
-        <v>13517257.441090001</v>
-      </c>
-      <c r="I6" s="13">
-        <v>3.2169999999999998E-3</v>
-      </c>
-      <c r="J6" s="14">
-        <v>40</v>
-      </c>
-      <c r="K6" s="12">
-        <f>H6-C6</f>
-        <v>6003935.9077280005</v>
-      </c>
-      <c r="L6" s="16">
-        <v>807</v>
-      </c>
-      <c r="M6" s="16">
-        <v>4</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="2"/>
-      <c r="S6" s="1"/>
-      <c r="V6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M6" s="2"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="2"/>
+      <c r="R6" s="1"/>
+      <c r="U6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5100</v>
       </c>
@@ -838,32 +747,13 @@
       <c r="G7" s="14">
         <v>2</v>
       </c>
-      <c r="H7" s="15">
-        <v>14102978.987980001</v>
-      </c>
-      <c r="I7" s="13">
-        <v>6.731E-3</v>
-      </c>
-      <c r="J7" s="14">
-        <v>54</v>
-      </c>
-      <c r="K7" s="12">
-        <f>H7-C7</f>
-        <v>6589657.4546180004</v>
-      </c>
-      <c r="L7" s="16">
-        <v>839</v>
-      </c>
-      <c r="M7" s="16">
-        <v>5</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="2"/>
-      <c r="S7" s="1"/>
-      <c r="V7"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M7" s="2"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="2"/>
+      <c r="R7" s="1"/>
+      <c r="U7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>5100</v>
       </c>
@@ -885,32 +775,13 @@
       <c r="G8" s="14">
         <v>2</v>
       </c>
-      <c r="H8" s="15">
-        <v>18312790.61366</v>
-      </c>
-      <c r="I8" s="13">
-        <v>5.3140000000000001E-3</v>
-      </c>
-      <c r="J8" s="14">
-        <v>41</v>
-      </c>
-      <c r="K8" s="12">
-        <f>H8-C8</f>
-        <v>10799469.080297999</v>
-      </c>
-      <c r="L8" s="14">
-        <v>1091</v>
-      </c>
-      <c r="M8" s="16">
-        <v>6</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="2"/>
-      <c r="S8" s="1"/>
-      <c r="V8"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M8" s="2"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="U8"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>10200</v>
       </c>
@@ -932,32 +803,13 @@
       <c r="G9" s="14">
         <v>2</v>
       </c>
-      <c r="H9" s="15">
-        <v>13517257.383509999</v>
-      </c>
-      <c r="I9" s="13">
-        <v>3.2169999999999998E-3</v>
-      </c>
-      <c r="J9" s="14">
-        <v>145</v>
-      </c>
-      <c r="K9" s="12">
-        <f>H9-C9</f>
-        <v>6003935.9325549994</v>
-      </c>
-      <c r="L9" s="16">
-        <v>807</v>
-      </c>
-      <c r="M9" s="16">
-        <v>4</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="2"/>
-      <c r="S9" s="1"/>
-      <c r="V9"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="2"/>
+      <c r="R9" s="1"/>
+      <c r="U9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>10200</v>
       </c>
@@ -979,32 +831,13 @@
       <c r="G10" s="14">
         <v>2</v>
       </c>
-      <c r="H10" s="15">
-        <v>14102978.92295</v>
-      </c>
-      <c r="I10" s="13">
-        <v>6.731E-3</v>
-      </c>
-      <c r="J10" s="14">
-        <v>68</v>
-      </c>
-      <c r="K10" s="12">
-        <f>H10-C10</f>
-        <v>6589657.4719949998</v>
-      </c>
-      <c r="L10" s="16">
-        <v>839</v>
-      </c>
-      <c r="M10" s="16">
-        <v>5</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="2"/>
-      <c r="S10" s="1"/>
-      <c r="V10"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M10" s="2"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="2"/>
+      <c r="R10" s="1"/>
+      <c r="U10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10200</v>
       </c>
@@ -1026,53 +859,26 @@
       <c r="G11" s="14">
         <v>2</v>
       </c>
-      <c r="H11" s="15">
-        <v>18312790.580770001</v>
-      </c>
-      <c r="I11" s="13">
-        <v>5.3140000000000001E-3</v>
-      </c>
-      <c r="J11" s="14">
-        <v>90</v>
-      </c>
-      <c r="K11" s="12">
-        <f>H11-C11</f>
-        <v>10799469.129815001</v>
-      </c>
-      <c r="L11" s="16">
-        <v>1091</v>
-      </c>
-      <c r="M11" s="16">
-        <v>6</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="2"/>
-      <c r="S11" s="1"/>
-      <c r="V11"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
+      <c r="M11" s="2"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="2"/>
+      <c r="R11" s="1"/>
+      <c r="U11"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -1094,31 +900,13 @@
       <c r="G13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="2"/>
-      <c r="S13" s="1"/>
-      <c r="V13"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M13" s="2"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="U13"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>1020</v>
       </c>
@@ -1140,32 +928,13 @@
       <c r="G14" s="17">
         <v>10</v>
       </c>
-      <c r="H14" s="15">
-        <v>13901858.812890001</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <v>28</v>
-      </c>
-      <c r="K14" s="15">
-        <f>H14-C14</f>
-        <v>5899256.985971001</v>
-      </c>
-      <c r="L14" s="17">
-        <v>807</v>
-      </c>
-      <c r="M14" s="17">
-        <v>9</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="2"/>
-      <c r="S14" s="1"/>
-      <c r="V14"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M14" s="2"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="R14" s="1"/>
+      <c r="U14"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>1020</v>
       </c>
@@ -1187,32 +956,13 @@
       <c r="G15" s="17">
         <v>10</v>
       </c>
-      <c r="H15" s="15">
-        <v>14410660.43416</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14">
-        <v>50</v>
-      </c>
-      <c r="K15" s="15">
-        <f>H15-C15</f>
-        <v>6408058.607241</v>
-      </c>
-      <c r="L15" s="17">
-        <v>839</v>
-      </c>
-      <c r="M15" s="17">
-        <v>9</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="2"/>
-      <c r="S15" s="1"/>
-      <c r="V15"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M15" s="2"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="2"/>
+      <c r="R15" s="1"/>
+      <c r="U15"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>1020</v>
       </c>
@@ -1234,32 +984,13 @@
       <c r="G16" s="17">
         <v>10</v>
       </c>
-      <c r="H16" s="15">
-        <v>18697391.41054</v>
-      </c>
-      <c r="I16" s="13">
-        <v>3.1770000000000001E-3</v>
-      </c>
-      <c r="J16" s="14">
-        <v>175</v>
-      </c>
-      <c r="K16" s="15">
-        <f>H16-C16</f>
-        <v>10694789.583620999</v>
-      </c>
-      <c r="L16" s="17">
-        <v>1091</v>
-      </c>
-      <c r="M16" s="17">
-        <v>11</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="2"/>
-      <c r="S16" s="1"/>
-      <c r="V16"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M16" s="2"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="2"/>
+      <c r="R16" s="1"/>
+      <c r="U16"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>5100</v>
       </c>
@@ -1281,32 +1012,13 @@
       <c r="G17" s="17">
         <v>3</v>
       </c>
-      <c r="H17" s="15">
-        <v>13517257.4452</v>
-      </c>
-      <c r="I17" s="13">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="J17" s="14">
-        <v>16</v>
-      </c>
-      <c r="K17" s="15">
-        <f>H17-C17</f>
-        <v>5927015.9586840002</v>
-      </c>
-      <c r="L17" s="17">
-        <v>807</v>
-      </c>
-      <c r="M17" s="17">
-        <v>4</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="2"/>
-      <c r="S17" s="1"/>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M17" s="2"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="2"/>
+      <c r="R17" s="1"/>
+      <c r="U17"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>5100</v>
       </c>
@@ -1328,32 +1040,13 @@
       <c r="G18" s="17">
         <v>3</v>
       </c>
-      <c r="H18" s="15">
-        <v>14102978.99065</v>
-      </c>
-      <c r="I18" s="13">
-        <v>3.8170000000000001E-3</v>
-      </c>
-      <c r="J18" s="14">
-        <v>27</v>
-      </c>
-      <c r="K18" s="15">
-        <f>H18-C18</f>
-        <v>6512737.5041340003</v>
-      </c>
-      <c r="L18" s="17">
-        <v>839</v>
-      </c>
-      <c r="M18" s="17">
-        <v>5</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="2"/>
-      <c r="S18" s="1"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M18" s="2"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="2"/>
+      <c r="R18" s="1"/>
+      <c r="U18"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>5100</v>
       </c>
@@ -1375,32 +1068,13 @@
       <c r="G19" s="17">
         <v>3</v>
       </c>
-      <c r="H19" s="15">
-        <v>18312790.615049999</v>
-      </c>
-      <c r="I19" s="13">
-        <v>3.0699999999999998E-3</v>
-      </c>
-      <c r="J19" s="14">
-        <v>28</v>
-      </c>
-      <c r="K19" s="15">
-        <f>H19-C19</f>
-        <v>10722549.128534</v>
-      </c>
-      <c r="L19" s="17">
-        <v>1091</v>
-      </c>
-      <c r="M19" s="17">
-        <v>6</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="2"/>
-      <c r="S19" s="1"/>
-      <c r="V19"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M19" s="2"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="2"/>
+      <c r="R19" s="1"/>
+      <c r="U19"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>10200</v>
       </c>
@@ -1422,32 +1096,13 @@
       <c r="G20" s="17">
         <v>3</v>
       </c>
-      <c r="H20" s="15">
-        <v>13517257.38343</v>
-      </c>
-      <c r="I20" s="13">
-        <v>1.7699999999999999E-4</v>
-      </c>
-      <c r="J20" s="14">
-        <v>29</v>
-      </c>
-      <c r="K20" s="15">
-        <f>H20-C20</f>
-        <v>5927015.9509040006</v>
-      </c>
-      <c r="L20" s="17">
-        <v>807</v>
-      </c>
-      <c r="M20" s="17">
-        <v>4</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="2"/>
-      <c r="S20" s="1"/>
-      <c r="V20"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M20" s="2"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="2"/>
+      <c r="R20" s="1"/>
+      <c r="U20"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>10200</v>
       </c>
@@ -1469,32 +1124,13 @@
       <c r="G21" s="17">
         <v>3</v>
       </c>
-      <c r="H21" s="15">
-        <v>14102978.939780001</v>
-      </c>
-      <c r="I21" s="13">
-        <v>3.8170000000000001E-3</v>
-      </c>
-      <c r="J21" s="14">
-        <v>56</v>
-      </c>
-      <c r="K21" s="15">
-        <f>H21-C21</f>
-        <v>6512737.5072540008</v>
-      </c>
-      <c r="L21" s="17">
-        <v>839</v>
-      </c>
-      <c r="M21" s="17">
-        <v>5</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="2"/>
-      <c r="S21" s="1"/>
-      <c r="V21"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="M21" s="2"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="U21"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>10200</v>
       </c>
@@ -1516,44 +1152,513 @@
       <c r="G22" s="17">
         <v>3</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="2"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="U22"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C25" s="15">
+        <v>13901858.812890001</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="14">
+        <v>28</v>
+      </c>
+      <c r="F25" s="16">
+        <v>807</v>
+      </c>
+      <c r="G25" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C26" s="15">
+        <v>14410660.43416</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
+        <v>53</v>
+      </c>
+      <c r="F26" s="16">
+        <v>839</v>
+      </c>
+      <c r="G26" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="C27" s="15">
+        <v>18697391.41054</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2.4819999999999998E-3</v>
+      </c>
+      <c r="E27" s="14">
+        <v>200</v>
+      </c>
+      <c r="F27" s="16">
+        <v>1091</v>
+      </c>
+      <c r="G27" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>5100</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C28" s="15">
+        <v>13517257.441090001</v>
+      </c>
+      <c r="D28" s="13">
+        <v>3.2169999999999998E-3</v>
+      </c>
+      <c r="E28" s="14">
+        <v>40</v>
+      </c>
+      <c r="F28" s="16">
+        <v>807</v>
+      </c>
+      <c r="G28" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>5100</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C29" s="15">
+        <v>14102978.987980001</v>
+      </c>
+      <c r="D29" s="13">
+        <v>6.731E-3</v>
+      </c>
+      <c r="E29" s="14">
+        <v>54</v>
+      </c>
+      <c r="F29" s="16">
+        <v>839</v>
+      </c>
+      <c r="G29" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>5100</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="C30" s="15">
+        <v>18312790.61366</v>
+      </c>
+      <c r="D30" s="13">
+        <v>5.3140000000000001E-3</v>
+      </c>
+      <c r="E30" s="14">
+        <v>41</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1091</v>
+      </c>
+      <c r="G30" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C31" s="15">
+        <v>13517257.383509999</v>
+      </c>
+      <c r="D31" s="13">
+        <v>3.2169999999999998E-3</v>
+      </c>
+      <c r="E31" s="14">
+        <v>145</v>
+      </c>
+      <c r="F31" s="16">
+        <v>807</v>
+      </c>
+      <c r="G31" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C32" s="15">
+        <v>14102978.92295</v>
+      </c>
+      <c r="D32" s="13">
+        <v>6.731E-3</v>
+      </c>
+      <c r="E32" s="14">
+        <v>68</v>
+      </c>
+      <c r="F32" s="16">
+        <v>839</v>
+      </c>
+      <c r="G32" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="C33" s="15">
+        <v>18312790.580770001</v>
+      </c>
+      <c r="D33" s="13">
+        <v>5.3140000000000001E-3</v>
+      </c>
+      <c r="E33" s="14">
+        <v>90</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1091</v>
+      </c>
+      <c r="G33" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B36" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C36" s="15">
+        <v>13901858.812890001</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="14">
+        <v>28</v>
+      </c>
+      <c r="F36" s="17">
+        <v>807</v>
+      </c>
+      <c r="G36" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C37" s="15">
+        <v>14410660.43416</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="14">
+        <v>50</v>
+      </c>
+      <c r="F37" s="17">
+        <v>839</v>
+      </c>
+      <c r="G37" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>1020</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="C38" s="15">
+        <v>18697391.41054</v>
+      </c>
+      <c r="D38" s="13">
+        <v>3.1770000000000001E-3</v>
+      </c>
+      <c r="E38" s="14">
+        <v>175</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1091</v>
+      </c>
+      <c r="G38" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>5100</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C39" s="15">
+        <v>13517257.4452</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="E39" s="14">
+        <v>16</v>
+      </c>
+      <c r="F39" s="17">
+        <v>807</v>
+      </c>
+      <c r="G39" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>5100</v>
+      </c>
+      <c r="B40" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C40" s="15">
+        <v>14102978.99065</v>
+      </c>
+      <c r="D40" s="13">
+        <v>3.8170000000000001E-3</v>
+      </c>
+      <c r="E40" s="14">
+        <v>27</v>
+      </c>
+      <c r="F40" s="17">
+        <v>839</v>
+      </c>
+      <c r="G40" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>5100</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="C41" s="15">
+        <v>18312790.615049999</v>
+      </c>
+      <c r="D41" s="13">
+        <v>3.0699999999999998E-3</v>
+      </c>
+      <c r="E41" s="14">
+        <v>28</v>
+      </c>
+      <c r="F41" s="17">
+        <v>1091</v>
+      </c>
+      <c r="G41" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="C42" s="15">
+        <v>13517257.38343</v>
+      </c>
+      <c r="D42" s="13">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="E42" s="14">
+        <v>29</v>
+      </c>
+      <c r="F42" s="17">
+        <v>807</v>
+      </c>
+      <c r="G42" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="C43" s="15">
+        <v>14102978.939780001</v>
+      </c>
+      <c r="D43" s="13">
+        <v>3.8170000000000001E-3</v>
+      </c>
+      <c r="E43" s="14">
+        <v>56</v>
+      </c>
+      <c r="F43" s="17">
+        <v>839</v>
+      </c>
+      <c r="G43" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>10200</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="C44" s="15">
         <v>18312790.52186</v>
       </c>
-      <c r="I22" s="13">
+      <c r="D44" s="13">
         <v>3.0699999999999998E-3</v>
       </c>
-      <c r="J22" s="14">
+      <c r="E44" s="14">
         <v>89</v>
       </c>
-      <c r="K22" s="15">
-        <f>H22-C22</f>
-        <v>10722549.089334</v>
-      </c>
-      <c r="L22" s="17">
+      <c r="F44" s="17">
         <v>1091</v>
       </c>
-      <c r="M22" s="17">
+      <c r="G44" s="17">
         <v>6</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="2"/>
-      <c r="S22" s="1"/>
-      <c r="V22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Y2" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Y11">
+  <autoFilter ref="A2:X2" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:X11">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="6">
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="C1:H1"/>
+  <mergeCells count="8">
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1561,14 +1666,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FEC51-21D1-452F-BD55-4C1D1E46BE82}">
-  <dimension ref="A2:R11"/>
+  <dimension ref="A2:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="6" max="7" width="9.08984375" customWidth="1"/>
     <col min="12" max="12" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1820,6 +1926,206 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17" spans="2:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="6">
+        <v>1020</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>28</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="6">
+        <v>1020</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2</v>
+      </c>
+      <c r="E19" s="14">
+        <v>53</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="6">
+        <v>1020</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>200</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="6">
+        <v>5100</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="D21" s="14">
+        <v>6</v>
+      </c>
+      <c r="E21" s="14">
+        <v>40</v>
+      </c>
+      <c r="F21" s="6">
+        <v>9</v>
+      </c>
+      <c r="G21" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="6">
+        <v>5100</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D22" s="14">
+        <v>6</v>
+      </c>
+      <c r="E22" s="14">
+        <v>54</v>
+      </c>
+      <c r="F22" s="6">
+        <v>9</v>
+      </c>
+      <c r="G22" s="14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="6">
+        <v>5100</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="D23" s="14">
+        <v>6</v>
+      </c>
+      <c r="E23" s="14">
+        <v>41</v>
+      </c>
+      <c r="F23" s="6">
+        <v>9</v>
+      </c>
+      <c r="G23" s="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="6">
+        <v>10200</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="D24" s="14">
+        <v>4</v>
+      </c>
+      <c r="E24" s="14">
+        <v>145</v>
+      </c>
+      <c r="F24" s="6">
+        <v>9</v>
+      </c>
+      <c r="G24" s="14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="6">
+        <v>10200</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="D25" s="14">
+        <v>4</v>
+      </c>
+      <c r="E25" s="14">
+        <v>68</v>
+      </c>
+      <c r="F25" s="6">
+        <v>9</v>
+      </c>
+      <c r="G25" s="14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B26" s="6">
+        <v>10200</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.999</v>
+      </c>
+      <c r="D26" s="14">
+        <v>4</v>
+      </c>
+      <c r="E26" s="14">
+        <v>90</v>
+      </c>
+      <c r="F26" s="6">
+        <v>9</v>
+      </c>
+      <c r="G26" s="14">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
